--- a/biology/Zoologie/Buse_du_Japon/Buse_du_Japon.xlsx
+++ b/biology/Zoologie/Buse_du_Japon/Buse_du_Japon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Buteo japonicus
 La Buse du Japon (Buteo japonicus), également appelée buse d'Orient, est une espèce d'oiseaux de la famille des Accipitridae. Elle était et est encore parfois considérée comme une sous-espèce de la buse variable (B. buteo).
@@ -512,7 +524,9 @@
           <t>Répartition et sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>B. j. japonicus : Temminck &amp; Schlegel, 1844 : centre/sud-est de la Sibérie, est de la Manchourie, Sakhaline et Japon ;
 B. j. toyoshimai : Momiyama, 1927 : archipels d'Izu et d'Osagawara ;
